--- a/Project_Management/Sprint6/Scrum Board.xlsx
+++ b/Project_Management/Sprint6/Scrum Board.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\SE2324\Project_Management\Sprint 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\SE2324\Project_Management\Sprint6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0A0D12-B973-43F3-AA83-90F699CCF4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF57F696-179E-4619-9AD2-4B97618E3A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="1950" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1379,9 +1379,7 @@
       <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
@@ -1461,7 +1459,9 @@
       <c r="D10" s="11"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
